--- a/requirements/Anforderungsdokument.xlsx
+++ b/requirements/Anforderungsdokument.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230AFB1-38FC-4DAF-87E4-26BBDA9CDB45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D562169-1C80-4BEA-AD8D-044C99A36368}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>1. Nicht Funktionale Anforderungen</t>
   </si>
@@ -40,12 +40,6 @@
     <t>1.1.1.</t>
   </si>
   <si>
-    <t>Das System...</t>
-  </si>
-  <si>
-    <t>Fokusgruppe</t>
-  </si>
-  <si>
     <t>1.2 Anforderungen an die Benutzbarkeit</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>2.1.2.</t>
   </si>
   <si>
-    <t>Contextual Inquiry</t>
-  </si>
-  <si>
     <t>2.2.1.</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Das System soll wichtige Stellen mit Markierungen versehen können</t>
   </si>
   <si>
-    <t>2.1.4.</t>
-  </si>
-  <si>
     <t>Das System soll Tonaufnahmen pausieren und fortsetzen, sowie abbrechen können</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>2.3.5.</t>
   </si>
   <si>
-    <t>Das System soll Aufnahmen umbenennen können</t>
-  </si>
-  <si>
     <t>Das System soll Labels hinzufügen und entfernen können</t>
   </si>
   <si>
@@ -241,12 +226,6 @@
     <t>2.7 Einstellungen</t>
   </si>
   <si>
-    <t>Das System soll die Soundqualität einstellen können</t>
-  </si>
-  <si>
-    <t>Das System soll das Standardateiformat einstellen können</t>
-  </si>
-  <si>
     <t>Das System soll den Standarddateispeicherort einstellen können</t>
   </si>
   <si>
@@ -263,6 +242,84 @@
   </si>
   <si>
     <t>Das System soll das Farbschema der App einstellen können</t>
+  </si>
+  <si>
+    <t>Auftrag</t>
+  </si>
+  <si>
+    <t>Interviews, Marktanalyse</t>
+  </si>
+  <si>
+    <t>Auftrag, Interviews, Marktanalyse</t>
+  </si>
+  <si>
+    <t>Das System soll Aufnahmen nachträglich umbenennen können</t>
+  </si>
+  <si>
+    <t>Marktanalyse</t>
+  </si>
+  <si>
+    <t>Das System soll die In-App-Sprache einstellen können</t>
+  </si>
+  <si>
+    <t>Prioritäten</t>
+  </si>
+  <si>
+    <t>Kernanforderung</t>
+  </si>
+  <si>
+    <t>2. Version</t>
+  </si>
+  <si>
+    <t>Endversion</t>
+  </si>
+  <si>
+    <t>Nice-to-Have</t>
+  </si>
+  <si>
+    <t>Das System soll das Standardateiformat / Soundqualität einstellen können</t>
+  </si>
+  <si>
+    <t>2.7.1.</t>
+  </si>
+  <si>
+    <t>2.7.2.</t>
+  </si>
+  <si>
+    <t>2.7.3.</t>
+  </si>
+  <si>
+    <t>2.7.4.</t>
+  </si>
+  <si>
+    <t>2.7.5.</t>
+  </si>
+  <si>
+    <t>2.7.6.</t>
+  </si>
+  <si>
+    <t>2.7.7.</t>
+  </si>
+  <si>
+    <t>2.7.8.</t>
+  </si>
+  <si>
+    <t>Das System soll Feedback über den Status der Aufnahme geben</t>
+  </si>
+  <si>
+    <t>1.2.2.</t>
+  </si>
+  <si>
+    <t>Das System soll externe Aufnahmequellen nutzen können</t>
+  </si>
+  <si>
+    <t>Das System soll den Guidelines des Material Design folgen</t>
+  </si>
+  <si>
+    <t>(ToDo: Navigationsweise)</t>
+  </si>
+  <si>
+    <t>Das System soll sinnvolle Fehlermeldungen ausgeben</t>
   </si>
 </sst>
 </file>
@@ -339,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -382,6 +439,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,20 +723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -686,7 +748,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -696,9 +758,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -707,10 +769,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -719,10 +784,16 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -731,8 +802,14 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -741,8 +818,14 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -751,8 +834,14 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -770,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -782,23 +871,21 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -808,7 +895,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -818,10 +905,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -830,51 +917,61 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -883,80 +980,84 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>26</v>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
       <c r="G23" s="6" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -964,22 +1065,24 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -992,48 +1095,60 @@
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1046,88 +1161,130 @@
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="11">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="11">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C34" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C35" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C36" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1140,56 +1297,74 @@
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="6">
+        <v>3</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="11">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="11">
+        <v>2</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C42" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="F42" s="11">
+        <v>2</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1202,48 +1377,60 @@
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="F45" s="11">
+        <v>4</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="F46" s="11">
+        <v>4</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1256,34 +1443,42 @@
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="6">
+        <v>4</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="11">
+        <v>2</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1295,83 +1490,124 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="6" t="s">
-        <v>37</v>
+      <c r="C51" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="6" t="s">
-        <v>38</v>
+      <c r="C52" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="11">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="6" t="s">
-        <v>39</v>
+      <c r="C53" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="11">
+        <v>2</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C54" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="11">
+        <v>2</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="11">
+        <v>2</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C55" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C56" s="6" t="s">
-        <v>45</v>
+      <c r="C56" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="11">
+        <v>4</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C57" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="11">
+        <v>4</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="6" t="s">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C58" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C58" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>80</v>
+      <c r="F58" s="11">
+        <v>4</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
